--- a/Table/Table_xls/技能相关表/c宠物技能显示表.xlsx
+++ b/Table/Table_xls/技能相关表/c宠物技能显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2279,9 +2279,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -2340,29 +2340,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2375,9 +2353,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2386,6 +2386,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2407,45 +2415,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2459,6 +2437,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -2467,20 +2468,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2491,11 +2496,6 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -2544,7 +2544,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2556,7 +2610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2568,7 +2628,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2580,79 +2676,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2664,67 +2718,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2753,17 +2753,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2794,24 +2797,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2835,6 +2820,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2843,10 +2843,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2855,136 +2855,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -3451,9 +3451,9 @@
   <dimension ref="A1:V266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F271" sqref="F271"/>
+      <selection pane="bottomLeft" activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -12003,7 +12003,7 @@
         <v>435</v>
       </c>
       <c r="C213" s="9">
-        <v>123</v>
+        <v>68</v>
       </c>
       <c r="D213" s="9">
         <v>2</v>
